--- a/warehouse/static/excel/template.xlsx
+++ b/warehouse/static/excel/template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Download\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01752447-3E44-455F-9682-4569A3E48AAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA3D816F-ACB8-47E5-883F-16A2BB1519D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{A330CD14-7B28-4EA6-B955-91E60EE8FFA1}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Tên tài sản</t>
   </si>
@@ -47,12 +47,6 @@
     <t>Số lượng</t>
   </si>
   <si>
-    <t>Ngày mượn</t>
-  </si>
-  <si>
-    <t>Ngày trả dự kiến</t>
-  </si>
-  <si>
     <t>Tình trạng</t>
   </si>
   <si>
@@ -63,12 +57,6 @@
   </si>
   <si>
     <t>Cái</t>
-  </si>
-  <si>
-    <t>25/11/2025</t>
-  </si>
-  <si>
-    <t>26/11/2025</t>
   </si>
   <si>
     <t>Bình thường</t>
@@ -480,23 +468,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F078882F-ADF6-4F6B-B417-22CB7111545F}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.85546875" style="2" customWidth="1"/>
     <col min="2" max="2" width="16.140625" style="3" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" style="3" customWidth="1"/>
-    <col min="4" max="6" width="20.85546875" style="3" customWidth="1"/>
-    <col min="7" max="7" width="31.28515625" style="3" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="20.85546875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="31.28515625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -512,34 +498,22 @@
       <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>8</v>
       </c>
       <c r="C2" s="6">
         <v>1</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
